--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1412.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1412.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.461699884514128</v>
+        <v>1.209896683692932</v>
       </c>
       <c r="B1">
-        <v>2.072603734377188</v>
+        <v>1.487979173660278</v>
       </c>
       <c r="C1">
-        <v>2.382882043865976</v>
+        <v>6.946109294891357</v>
       </c>
       <c r="D1">
-        <v>2.723302284087413</v>
+        <v>2.191200971603394</v>
       </c>
       <c r="E1">
-        <v>3.12538662128156</v>
+        <v>1.171060562133789</v>
       </c>
     </row>
   </sheetData>
